--- a/Lab6/Skills.xlsx
+++ b/Lab6/Skills.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Monster.com" sheetId="1" r:id="rId1"/>
-    <sheet name="Matched" sheetId="3" r:id="rId2"/>
+    <sheet name="Specturm" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Ranking</t>
   </si>
@@ -78,9 +78,6 @@
     <t>C/C++</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matched </t>
   </si>
   <si>
@@ -90,13 +87,46 @@
     <t>No</t>
   </si>
   <si>
+    <t>Rated Score</t>
+  </si>
+  <si>
     <t>Rated Score(100 being the hardest)</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Mached</t>
+  </si>
+  <si>
+    <t>Languages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -126,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,12 +439,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -427,7 +459,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -441,7 +473,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -455,7 +487,7 @@
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,7 +501,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,7 +515,7 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,7 +529,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,7 +543,7 @@
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,7 +557,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,7 +571,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,7 +585,7 @@
         <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +599,7 @@
         <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,7 +613,7 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,7 +627,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +641,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,7 +655,7 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -633,114 +665,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>87.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
